--- a/Metadata/result_varyingGrouping.xlsx
+++ b/Metadata/result_varyingGrouping.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2316.345</v>
+        <v>2287.372</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5</v>
+        <v>15.84</v>
       </c>
       <c r="H2" t="n">
-        <v>70.5</v>
+        <v>35.34</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>177.6</v>
       </c>
       <c r="J2" t="n">
-        <v>10.5</v>
+        <v>198.4</v>
       </c>
     </row>
     <row r="3">
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8929.785</v>
+        <v>8531.276</v>
       </c>
       <c r="G3" t="n">
-        <v>13.85</v>
+        <v>14.5</v>
       </c>
       <c r="H3" t="n">
-        <v>67.5</v>
+        <v>36.14</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>177.6</v>
       </c>
       <c r="J3" t="n">
-        <v>10.5</v>
+        <v>198.4</v>
       </c>
     </row>
     <row r="4">
@@ -580,19 +580,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2719.94</v>
+        <v>3846.892</v>
       </c>
       <c r="G4" t="n">
-        <v>15.1</v>
+        <v>16.42</v>
       </c>
       <c r="H4" t="n">
-        <v>69</v>
+        <v>36.52</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>177.6</v>
       </c>
       <c r="J4" t="n">
-        <v>10.5</v>
+        <v>302.2</v>
       </c>
     </row>
     <row r="5">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2207.27</v>
+        <v>2052.598</v>
       </c>
       <c r="G8" t="n">
-        <v>20.9</v>
+        <v>21.14</v>
       </c>
       <c r="H8" t="n">
-        <v>90</v>
+        <v>42.58</v>
       </c>
       <c r="I8" t="n">
-        <v>310.5</v>
+        <v>168</v>
       </c>
       <c r="J8" t="n">
-        <v>630.5</v>
+        <v>223.8</v>
       </c>
     </row>
     <row r="9">
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2912.54</v>
+        <v>2770.386</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>20.98</v>
       </c>
       <c r="H9" t="n">
-        <v>89.5</v>
+        <v>44.59999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>310.5</v>
+        <v>168</v>
       </c>
       <c r="J9" t="n">
-        <v>630.5</v>
+        <v>223.8</v>
       </c>
     </row>
     <row r="10">
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1136.03</v>
+        <v>1874.588</v>
       </c>
       <c r="G10" t="n">
         <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>81.5</v>
+        <v>37.26000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>310.5</v>
+        <v>168</v>
       </c>
       <c r="J10" t="n">
-        <v>630.5</v>
+        <v>229.8</v>
       </c>
     </row>
     <row r="11">
@@ -922,19 +922,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>520.925</v>
+        <v>390.404</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>16.28</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5</v>
+        <v>39.22000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>13.5</v>
+        <v>34.8</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -960,19 +960,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5102.71</v>
+        <v>4208.852000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>15.6</v>
+        <v>14.06</v>
       </c>
       <c r="H14" t="n">
-        <v>58</v>
+        <v>37.62</v>
       </c>
       <c r="I14" t="n">
-        <v>13.5</v>
+        <v>34.8</v>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -998,19 +998,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1677.49</v>
+        <v>1967.628</v>
       </c>
       <c r="G15" t="n">
-        <v>21.15</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>59.5</v>
+        <v>39.17999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>13.5</v>
+        <v>34.8</v>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>257.924</v>
+        <v>190.546</v>
       </c>
       <c r="G19" t="n">
-        <v>10.16</v>
+        <v>9.139999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>31.8</v>
+        <v>27.86</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>251.8</v>
+        <v>190.6</v>
       </c>
     </row>
     <row r="20">
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2262.212</v>
+        <v>1618.45</v>
       </c>
       <c r="G20" t="n">
-        <v>9.26</v>
+        <v>8.52</v>
       </c>
       <c r="H20" t="n">
-        <v>31.2</v>
+        <v>27.44</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>251.8</v>
+        <v>190.6</v>
       </c>
     </row>
     <row r="21">
@@ -1226,19 +1226,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>349.0559999999999</v>
+        <v>1107.574</v>
       </c>
       <c r="G21" t="n">
-        <v>11.7</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>33</v>
+        <v>28.62</v>
       </c>
       <c r="I21" t="n">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>251.8</v>
+        <v>228.4</v>
       </c>
     </row>
     <row r="22">
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>23.184</v>
+        <v>17.808</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="H25" t="n">
-        <v>11.2</v>
+        <v>18.98</v>
       </c>
       <c r="I25" t="n">
-        <v>86.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>278.2</v>
+        <v>247.4</v>
       </c>
     </row>
     <row r="26">
@@ -1416,19 +1416,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>67.776</v>
+        <v>53.996</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="H26" t="n">
-        <v>11.4</v>
+        <v>18.92</v>
       </c>
       <c r="I26" t="n">
-        <v>86.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>278.2</v>
+        <v>247.4</v>
       </c>
     </row>
     <row r="27">
@@ -1454,19 +1454,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>769.878</v>
+        <v>1332.564</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I27" t="n">
-        <v>86.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>278.2</v>
+        <v>305.4</v>
       </c>
     </row>
     <row r="28">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>109.536</v>
+        <v>84.98400000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>6.26</v>
+        <v>5.76</v>
       </c>
       <c r="H31" t="n">
-        <v>18.4</v>
+        <v>22.54</v>
       </c>
       <c r="I31" t="n">
-        <v>121.6</v>
+        <v>130.2</v>
       </c>
       <c r="J31" t="n">
-        <v>560.2</v>
+        <v>496.8</v>
       </c>
     </row>
     <row r="32">
@@ -1644,19 +1644,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>678.2499999999999</v>
+        <v>485.67</v>
       </c>
       <c r="G32" t="n">
-        <v>5.4</v>
+        <v>5.08</v>
       </c>
       <c r="H32" t="n">
-        <v>17.6</v>
+        <v>21.86</v>
       </c>
       <c r="I32" t="n">
-        <v>121.6</v>
+        <v>130.2</v>
       </c>
       <c r="J32" t="n">
-        <v>560.2</v>
+        <v>496.8</v>
       </c>
     </row>
     <row r="33">
@@ -1682,19 +1682,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>687.472</v>
+        <v>1547.502</v>
       </c>
       <c r="G33" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>16</v>
+        <v>21.1</v>
       </c>
       <c r="I33" t="n">
-        <v>121.6</v>
+        <v>130.2</v>
       </c>
       <c r="J33" t="n">
-        <v>560.2</v>
+        <v>696</v>
       </c>
     </row>
     <row r="34">
